--- a/Cost_SmartVision.xlsx
+++ b/Cost_SmartVision.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$3:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$3:$K$25</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Article</t>
   </si>
@@ -108,9 +108,6 @@
     <t>MCMR04X4020FTL</t>
   </si>
   <si>
-    <t>Capacity 12pF</t>
-  </si>
-  <si>
     <t>MC0402N120J500CT</t>
   </si>
   <si>
@@ -120,54 +117,15 @@
     <t>LP2992IM5-3.0/NOPB</t>
   </si>
   <si>
-    <t>Capacity 100nF</t>
-  </si>
-  <si>
-    <t>Capacity 2,2uF</t>
-  </si>
-  <si>
-    <t>Capacity 22pF</t>
-  </si>
-  <si>
-    <t>Capacity 1uF</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Capacity 4,7uF</t>
-  </si>
-  <si>
-    <t>Resistor 1Kohm</t>
-  </si>
-  <si>
-    <t>Resistor 402ohm</t>
-  </si>
-  <si>
-    <t>Resistor 4,7Kohm</t>
-  </si>
-  <si>
     <t>MC0402N220J500CT</t>
   </si>
   <si>
-    <t>MC0805B475K160CT</t>
-  </si>
-  <si>
-    <t>MC0603B105K160CT</t>
-  </si>
-  <si>
-    <t>MC0603X225K100CT</t>
-  </si>
-  <si>
-    <t>MC0603B104K500CT</t>
-  </si>
-  <si>
     <t>MCMR04X1001FTL</t>
   </si>
   <si>
-    <t>MCMR06X4701FTL</t>
-  </si>
-  <si>
     <t>Total [CHF]</t>
   </si>
   <si>
@@ -198,37 +156,91 @@
     <t>KP-2012SECK</t>
   </si>
   <si>
-    <t>Resistor 100ohm</t>
-  </si>
-  <si>
-    <t>MCMR06X1000FTL</t>
-  </si>
-  <si>
-    <t>Connector 2pins</t>
+    <t>MPU sensors</t>
+  </si>
+  <si>
+    <t>MPU-9250</t>
+  </si>
+  <si>
+    <t>Diode schottky</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>PMEG3015EJ,115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector 4 pins </t>
   </si>
   <si>
     <t>MOLEX</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>MPU sensors</t>
-  </si>
-  <si>
-    <t>MPU-9250</t>
-  </si>
-  <si>
-    <t>Capacity 10uF</t>
-  </si>
-  <si>
-    <t>MC0805X106K250CT</t>
-  </si>
-  <si>
-    <t>Resistor 10Kohm</t>
-  </si>
-  <si>
-    <t>MCMR06X1002FTL</t>
+    <t>53398-0471</t>
+  </si>
+  <si>
+    <t>Resistor 402ohm (0402)</t>
+  </si>
+  <si>
+    <t>Resistor 4,7Kohm (0402)</t>
+  </si>
+  <si>
+    <t>MCMR04X4701FTL</t>
+  </si>
+  <si>
+    <t>Resistor 1Kohm (0402)</t>
+  </si>
+  <si>
+    <t>Resistor 10Kohm (0402)</t>
+  </si>
+  <si>
+    <t>MCMR04X1002FTL</t>
+  </si>
+  <si>
+    <t>Capacity 4,7uF (0603)</t>
+  </si>
+  <si>
+    <t>MC0603X475K100CT</t>
+  </si>
+  <si>
+    <t>Capacity 22pF (0402)</t>
+  </si>
+  <si>
+    <t>Capacity 2,2uF (0402)</t>
+  </si>
+  <si>
+    <t>MC0402X225M6R3CT</t>
+  </si>
+  <si>
+    <t>Capacity 1uF (0402)</t>
+  </si>
+  <si>
+    <t>MC0402X105K100CT</t>
+  </si>
+  <si>
+    <t>Capacity 12pF (0402)</t>
+  </si>
+  <si>
+    <t>Capacity 10uF (0603)</t>
+  </si>
+  <si>
+    <t>MC0603X106M6R3CT</t>
+  </si>
+  <si>
+    <t>Capacity 100nF (0402)</t>
+  </si>
+  <si>
+    <t>MC0402X104K250CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector stackable 64pins </t>
+  </si>
+  <si>
+    <t>801-43-064-10-002000</t>
+  </si>
+  <si>
+    <t>MIL-MAX</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,11 +334,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -661,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P27"/>
+  <dimension ref="A3:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -680,7 +690,7 @@
   <sheetData>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="30">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -713,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>9</v>
@@ -724,10 +734,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -745,20 +755,20 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="J4">
-        <f>G4*H4</f>
+        <f t="shared" ref="J4:J28" si="0">G4*H4</f>
         <v>1.266</v>
       </c>
       <c r="K4">
-        <f>G4*I4</f>
+        <f t="shared" ref="K4:K28" si="1">G4*I4</f>
         <v>1.266</v>
       </c>
       <c r="O4">
-        <f>SUM(J4:J27)</f>
-        <v>25.209900000000001</v>
+        <f>SUM(J4:J25)</f>
+        <v>24.634399999999999</v>
       </c>
       <c r="P4">
-        <f>SUM(K4:K27)</f>
-        <v>23.329899999999999</v>
+        <f>SUM(K4:K25)</f>
+        <v>22.754399999999997</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -787,11 +797,11 @@
         <v>0.38</v>
       </c>
       <c r="J5">
-        <f>G5*H5</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="K5">
-        <f>G5*I5</f>
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
@@ -821,17 +831,17 @@
         <v>14.5</v>
       </c>
       <c r="J6">
-        <f>G6*H6</f>
+        <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
       <c r="K6">
-        <f>G6*I6</f>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -846,7 +856,7 @@
         <v>2073011</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>1.4999999999999999E-2</v>
@@ -855,57 +865,57 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J7">
-        <f>G7*H7</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K7">
-        <f>G7*I7</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>2073509</v>
+        <v>2073064</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>1.6299999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="I8">
-        <v>1.6299999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="J8">
-        <f>G8*H8</f>
-        <v>8.1499999999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="K8">
-        <f>G8*I8</f>
-        <v>8.1499999999999989E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5499999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -923,653 +933,693 @@
         <v>1.52E-2</v>
       </c>
       <c r="J9">
-        <f>G9*H9</f>
+        <f t="shared" si="0"/>
         <v>3.04E-2</v>
       </c>
       <c r="K9">
-        <f>G9*I9</f>
+        <f t="shared" si="1"/>
         <v>3.04E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2">
-        <v>2073349</v>
-      </c>
-      <c r="G10" s="9">
+        <v>2072517</v>
+      </c>
+      <c r="G10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="9">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="J10" s="9">
-        <f>G10*H10</f>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="K10" s="9">
-        <f>G10*I10</f>
-        <v>1.5599999999999999E-2</v>
+      <c r="H10" s="8">
+        <v>1.46E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.46E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.46E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.46E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>2073347</v>
+        <v>2101326</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1.5599999999999999E-2</v>
+        <v>2.02</v>
       </c>
       <c r="I11">
-        <v>1.5599999999999999E-2</v>
+        <v>2.02</v>
       </c>
       <c r="J11">
-        <f>G11*H11</f>
-        <v>6.2399999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.02</v>
       </c>
       <c r="K11">
-        <f>G11*I11</f>
-        <v>6.2399999999999997E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.02</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2101326</v>
-      </c>
-      <c r="G12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2443115</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>2.02</v>
-      </c>
-      <c r="I12">
-        <v>2.02</v>
-      </c>
-      <c r="J12">
-        <f>G12*H12</f>
-        <v>2.02</v>
-      </c>
-      <c r="K12">
-        <f>G12*I12</f>
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <f>G13*I13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="H13">
+        <v>1.4</v>
+      </c>
+      <c r="I13">
+        <v>1.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>2443115</v>
+        <v>1318247</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1.4</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="I14">
-        <v>1.4</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="J14">
-        <f>G14*H14</f>
-        <v>1.4</v>
+        <f t="shared" si="0"/>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="K14">
-        <f>G14*I14</f>
-        <v>1.4</v>
+        <f t="shared" si="1"/>
+        <v>9.1700000000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="2">
-        <v>1318247</v>
+        <v>8529949</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>9.1700000000000004E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="I15">
-        <v>9.1700000000000004E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="J15">
-        <f>G15*H15</f>
-        <v>9.1700000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="K15">
-        <f>G15*I15</f>
-        <v>9.1700000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.8599999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="2">
-        <v>8529949</v>
+        <v>2290332</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>8.8599999999999998E-2</v>
+        <v>0.115</v>
       </c>
       <c r="I16">
-        <v>8.8599999999999998E-2</v>
+        <v>0.115</v>
       </c>
       <c r="J16">
-        <f>G16*H16</f>
-        <v>8.8599999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.115</v>
       </c>
       <c r="K16">
-        <f>G16*I16</f>
-        <v>8.8599999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.115</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="2">
-        <v>2290332</v>
+        <v>2290331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.115</v>
+        <v>0.1671</v>
       </c>
       <c r="I17">
-        <v>0.115</v>
+        <v>0.1671</v>
       </c>
       <c r="J17">
-        <f>G17*H17</f>
-        <v>0.115</v>
+        <f t="shared" si="0"/>
+        <v>0.1671</v>
       </c>
       <c r="K17">
-        <f>G17*I17</f>
-        <v>0.115</v>
+        <f t="shared" si="1"/>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2">
-        <v>2290331</v>
+        <v>2427752</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.1671</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18">
-        <v>0.1671</v>
+        <v>0.97</v>
       </c>
       <c r="J18">
-        <f>G18*H18</f>
-        <v>0.1671</v>
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K18">
-        <f>G18*I18</f>
-        <v>0.1671</v>
+        <f t="shared" si="1"/>
+        <v>0.97</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5">
-        <f>G19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <f>G19*I19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2320818</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="I19">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.27639999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2">
-        <v>2427752</v>
+        <v>1758951</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>1.1000000000000001</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I20">
-        <v>0.97</v>
+        <v>1.04E-2</v>
       </c>
       <c r="J20">
-        <f>G20*H20</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="K20">
-        <f>G20*I20</f>
-        <v>0.97</v>
+        <f t="shared" si="1"/>
+        <v>2.0799999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="2">
-        <v>2320854</v>
+        <v>1759376</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.23400000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I21">
-        <v>0.23400000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J21">
-        <f>G21*H21</f>
-        <v>0.93600000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.26200000000000001</v>
       </c>
       <c r="K21">
-        <f>G21*I21</f>
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <f t="shared" si="1"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1">
+      <c r="A22"/>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2">
-        <v>1758951</v>
+        <v>2320776</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>1.04E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="I22">
-        <v>1.04E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="J22">
-        <f>G22*H22</f>
-        <v>2.0799999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="K22">
-        <f>G22*I22</f>
-        <v>2.0799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" s="5" customFormat="1">
+      <c r="A23"/>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2">
-        <v>2320817</v>
+        <v>1758943</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>4.41E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I23">
-        <v>4.41E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="J23">
-        <f>G23*H23</f>
-        <v>8.8200000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="K23">
-        <f>G23*I23</f>
-        <v>8.8200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="5" customFormat="1">
-      <c r="A24"/>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
+        <f t="shared" si="1"/>
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1">
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2">
-        <v>2320814</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I24">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="J24">
-        <f>G24*H24</f>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K24">
-        <f>G24*I24</f>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1">
-      <c r="A25"/>
+        <v>1759393</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.374</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2">
-        <v>1758943</v>
+        <v>2320760</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>1.04E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="I25">
-        <v>1.04E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="J25">
-        <f>G25*H25</f>
-        <v>2.0799999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.17549999999999999</v>
       </c>
       <c r="K25">
-        <f>G25*I25</f>
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-    </row>
-    <row r="26" spans="1:16" s="9" customFormat="1">
-      <c r="B26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10">
-        <v>2320833</v>
-      </c>
-      <c r="G26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17549999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1757771</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="9">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="J26" s="9">
-        <f>G26*H26</f>
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="K26" s="9">
-        <f>G26*I26</f>
-        <v>0.36299999999999999</v>
+      <c r="H26">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2">
-        <v>1759122</v>
+        <v>1125367</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1.66E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I27">
-        <v>1.66E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J27">
-        <f>G27*H27</f>
-        <v>0.21579999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K27">
-        <f>G27*I27</f>
-        <v>0.21579999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2096204</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>12.8</v>
+      </c>
+      <c r="I28">
+        <v>11.15</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>11.15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K27"/>
+  <autoFilter ref="A3:K25"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="B20" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B25" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B18" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6" display="Resistor 402ohm"/>
+    <hyperlink ref="B23" r:id="rId7" display="Capacity 12pF"/>
     <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="B22" r:id="rId9"/>
-    <hyperlink ref="B21" r:id="rId10"/>
-    <hyperlink ref="B24" r:id="rId11"/>
-    <hyperlink ref="B23" r:id="rId12"/>
-    <hyperlink ref="B27" r:id="rId13"/>
-    <hyperlink ref="B9" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId9" display="Capacity 22pF"/>
+    <hyperlink ref="B19" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B21" r:id="rId12"/>
+    <hyperlink ref="B25" r:id="rId13"/>
+    <hyperlink ref="B9" r:id="rId14" display="Resistor 1Kohm"/>
     <hyperlink ref="B8" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B16" r:id="rId17"/>
-    <hyperlink ref="B15" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="B11" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B10" r:id="rId22"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B15" r:id="rId17"/>
+    <hyperlink ref="B14" r:id="rId18"/>
+    <hyperlink ref="B16" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B10" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
